--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/App-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H2">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I2">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J2">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>381.3279273071146</v>
+        <v>259.8202457262107</v>
       </c>
       <c r="R2">
-        <v>3431.951345764032</v>
+        <v>2338.382211535897</v>
       </c>
       <c r="S2">
-        <v>0.001710242737333371</v>
+        <v>0.001183353407165015</v>
       </c>
       <c r="T2">
-        <v>0.001816503757836023</v>
+        <v>0.001223880597597059</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H3">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I3">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J3">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>17952.27156244035</v>
+        <v>16607.45328561376</v>
       </c>
       <c r="R3">
-        <v>161570.4440619631</v>
+        <v>149467.0795705239</v>
       </c>
       <c r="S3">
-        <v>0.0805153251562731</v>
+        <v>0.07563878009173296</v>
       </c>
       <c r="T3">
-        <v>0.08551791363710387</v>
+        <v>0.07822923804475398</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H4">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I4">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J4">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>11337.34175009443</v>
+        <v>12251.76736021188</v>
       </c>
       <c r="R4">
-        <v>102036.0757508499</v>
+        <v>110265.9062419069</v>
       </c>
       <c r="S4">
-        <v>0.05084759074870844</v>
+        <v>0.0558007733730554</v>
       </c>
       <c r="T4">
-        <v>0.05400685976071053</v>
+        <v>0.05771182425189888</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H5">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I5">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J5">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>4005.729741560143</v>
+        <v>2611.09790659673</v>
       </c>
       <c r="R5">
-        <v>24034.37844936086</v>
+        <v>15666.58743958038</v>
       </c>
       <c r="S5">
-        <v>0.01796556115520495</v>
+        <v>0.01189226649977329</v>
       </c>
       <c r="T5">
-        <v>0.01272119979917656</v>
+        <v>0.008199699905032344</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>96.62005599999999</v>
+        <v>89.38217433333334</v>
       </c>
       <c r="H6">
-        <v>289.860168</v>
+        <v>268.146523</v>
       </c>
       <c r="I6">
-        <v>0.2116037895476247</v>
+        <v>0.2143552015363441</v>
       </c>
       <c r="J6">
-        <v>0.2183905833651517</v>
+        <v>0.2175965347165783</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>13504.0202252392</v>
+        <v>15334.26377055759</v>
       </c>
       <c r="R6">
-        <v>121536.1820271528</v>
+        <v>138008.3739350183</v>
       </c>
       <c r="S6">
-        <v>0.06056506975010478</v>
+        <v>0.06984002816461744</v>
       </c>
       <c r="T6">
-        <v>0.06432810641032476</v>
+        <v>0.07223189191729605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>367.061969</v>
       </c>
       <c r="I7">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J7">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>482.8913913830284</v>
+        <v>355.6642462312545</v>
       </c>
       <c r="R7">
-        <v>4346.022522447255</v>
+        <v>3200.97821608129</v>
       </c>
       <c r="S7">
-        <v>0.002165751406842271</v>
+        <v>0.001619875681389496</v>
       </c>
       <c r="T7">
-        <v>0.002300314150260168</v>
+        <v>0.001675352777089238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>367.061969</v>
       </c>
       <c r="I8">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J8">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>22733.70706019897</v>
@@ -948,10 +948,10 @@
         <v>204603.3635417907</v>
       </c>
       <c r="S8">
-        <v>0.1019599001492914</v>
+        <v>0.103540852376555</v>
       </c>
       <c r="T8">
-        <v>0.1082948857064324</v>
+        <v>0.107086893496945</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>367.061969</v>
       </c>
       <c r="I9">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J9">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>14356.94671237328</v>
+        <v>16771.27042579367</v>
       </c>
       <c r="R9">
-        <v>129212.5204113595</v>
+        <v>150941.4338321431</v>
       </c>
       <c r="S9">
-        <v>0.06439041593023262</v>
+        <v>0.07638488657947835</v>
       </c>
       <c r="T9">
-        <v>0.06839112948859284</v>
+        <v>0.07900089700019698</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>367.061969</v>
       </c>
       <c r="I10">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J10">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>5072.621934790735</v>
+        <v>3574.294859856056</v>
       </c>
       <c r="R10">
-        <v>30435.73160874441</v>
+        <v>21445.76915913633</v>
       </c>
       <c r="S10">
-        <v>0.02275053622345049</v>
+        <v>0.01627915480104704</v>
       </c>
       <c r="T10">
-        <v>0.0161093836333116</v>
+        <v>0.01122445280541745</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>367.061969</v>
       </c>
       <c r="I11">
-        <v>0.2679626668787852</v>
+        <v>0.2934277926151677</v>
       </c>
       <c r="J11">
-        <v>0.2765570657541026</v>
+        <v>0.2978648075949286</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>17100.70165036309</v>
+        <v>20990.85600593909</v>
       </c>
       <c r="R11">
-        <v>153906.3148532678</v>
+        <v>188917.7040534518</v>
       </c>
       <c r="S11">
-        <v>0.07669606316896842</v>
+        <v>0.0956030231766978</v>
       </c>
       <c r="T11">
-        <v>0.0814613527755056</v>
+        <v>0.09887721151527992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H12">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I12">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J12">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>330.5097141818765</v>
+        <v>262.5888744232404</v>
       </c>
       <c r="R12">
-        <v>2974.587427636888</v>
+        <v>2363.299869809164</v>
       </c>
       <c r="S12">
-        <v>0.001482324786147748</v>
+        <v>0.00119596314892185</v>
       </c>
       <c r="T12">
-        <v>0.001574424779355747</v>
+        <v>0.001236922194624166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H13">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I13">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J13">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>15559.83634589379</v>
+        <v>16784.42129525679</v>
       </c>
       <c r="R13">
-        <v>140038.5271130441</v>
+        <v>151059.7916573111</v>
       </c>
       <c r="S13">
-        <v>0.06978533487590216</v>
+        <v>0.07644478232063918</v>
       </c>
       <c r="T13">
-        <v>0.0741212462282257</v>
+        <v>0.07906284403566549</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H14">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I14">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J14">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>9826.45464198618</v>
+        <v>12382.32144620315</v>
       </c>
       <c r="R14">
-        <v>88438.09177787561</v>
+        <v>111440.8930158284</v>
       </c>
       <c r="S14">
-        <v>0.04407131364301495</v>
+        <v>0.05639538301190505</v>
       </c>
       <c r="T14">
-        <v>0.04680955813917406</v>
+        <v>0.05832679793239533</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H15">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I15">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J15">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>3471.90042261608</v>
+        <v>2638.921606688891</v>
       </c>
       <c r="R15">
-        <v>20831.40253569647</v>
+        <v>15833.52964013335</v>
       </c>
       <c r="S15">
-        <v>0.01557135488201896</v>
+        <v>0.01201898976651476</v>
       </c>
       <c r="T15">
-        <v>0.01102589086345668</v>
+        <v>0.008287075407278717</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.74384566666667</v>
+        <v>90.33462533333334</v>
       </c>
       <c r="H16">
-        <v>251.231537</v>
+        <v>271.003876</v>
       </c>
       <c r="I16">
-        <v>0.1834041070557659</v>
+        <v>0.2166393574945233</v>
       </c>
       <c r="J16">
-        <v>0.1892864490617203</v>
+        <v>0.2199152301234996</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>11704.38760273516</v>
+        <v>15497.66475035547</v>
       </c>
       <c r="R16">
-        <v>105339.4884246164</v>
+        <v>139478.9827531992</v>
       </c>
       <c r="S16">
-        <v>0.05249377886868206</v>
+        <v>0.07058423924654242</v>
       </c>
       <c r="T16">
-        <v>0.05575532905150818</v>
+        <v>0.07300159055353592</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H17">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I17">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J17">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>168.00692135388</v>
+        <v>54.16664257759299</v>
       </c>
       <c r="R17">
-        <v>1008.04152812328</v>
+        <v>324.9998554655579</v>
       </c>
       <c r="S17">
-        <v>0.00075350530735138</v>
+        <v>0.0002467024110062182</v>
       </c>
       <c r="T17">
-        <v>0.0005335481303226509</v>
+        <v>0.0001701009421658606</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H18">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I18">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J18">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>7909.480687170584</v>
+        <v>3462.27825214917</v>
       </c>
       <c r="R18">
-        <v>47456.88412302351</v>
+        <v>20773.66951289502</v>
       </c>
       <c r="S18">
-        <v>0.03547375089162443</v>
+        <v>0.01576897425673068</v>
       </c>
       <c r="T18">
-        <v>0.02511854034616843</v>
+        <v>0.01087268408573227</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H19">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I19">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J19">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>4995.049529210385</v>
+        <v>2554.216287839761</v>
       </c>
       <c r="R19">
-        <v>29970.29717526231</v>
+        <v>15325.29772703857</v>
       </c>
       <c r="S19">
-        <v>0.02240262663235877</v>
+        <v>0.01163319870783512</v>
       </c>
       <c r="T19">
-        <v>0.01586303299710866</v>
+        <v>0.008021073051270467</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H20">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I20">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J20">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>1764.85977937089</v>
+        <v>544.3548351915764</v>
       </c>
       <c r="R20">
-        <v>7059.43911748356</v>
+        <v>2177.419340766306</v>
       </c>
       <c r="S20">
-        <v>0.007915335866942482</v>
+        <v>0.0024792684924542</v>
       </c>
       <c r="T20">
-        <v>0.003736503345524175</v>
+        <v>0.001139634603295284</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>42.569235</v>
+        <v>18.634161</v>
       </c>
       <c r="H21">
-        <v>85.13847</v>
+        <v>37.268322</v>
       </c>
       <c r="I21">
-        <v>0.09322920951467238</v>
+        <v>0.0446882095496985</v>
       </c>
       <c r="J21">
-        <v>0.06414624078364733</v>
+        <v>0.03024263611988591</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>5949.653045253464</v>
+        <v>3196.847045266783</v>
       </c>
       <c r="R21">
-        <v>35697.91827152079</v>
+        <v>19181.0822716007</v>
       </c>
       <c r="S21">
-        <v>0.02668399081639532</v>
+        <v>0.01456006568167228</v>
       </c>
       <c r="T21">
-        <v>0.01889461596452342</v>
+        <v>0.01003914343742203</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H22">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I22">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J22">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>439.3486309430774</v>
+        <v>279.8614183175775</v>
       </c>
       <c r="R22">
-        <v>3954.137678487696</v>
+        <v>2518.752764858198</v>
       </c>
       <c r="S22">
-        <v>0.001970463612602387</v>
+        <v>0.001274631089561509</v>
       </c>
       <c r="T22">
-        <v>0.002092892709810508</v>
+        <v>0.001318284335146883</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H23">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I23">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J23">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>20683.78780692926</v>
+        <v>17888.46522781158</v>
       </c>
       <c r="R23">
-        <v>186154.0902623634</v>
+        <v>160996.1870503042</v>
       </c>
       <c r="S23">
-        <v>0.09276608227242554</v>
+        <v>0.0814731593264299</v>
       </c>
       <c r="T23">
-        <v>0.09852983636131625</v>
+        <v>0.08426343163487987</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H24">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I24">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J24">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>13062.3676362055</v>
+        <v>13196.8045089875</v>
       </c>
       <c r="R24">
-        <v>117561.3087258496</v>
+        <v>118771.2405808875</v>
       </c>
       <c r="S24">
-        <v>0.05858427296411167</v>
+        <v>0.06010495269817075</v>
       </c>
       <c r="T24">
-        <v>0.06222423850507274</v>
+        <v>0.06216341203006507</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H25">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I25">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J25">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>4615.218954223132</v>
+        <v>2812.504319914515</v>
       </c>
       <c r="R25">
-        <v>27691.31372533879</v>
+        <v>16875.02591948709</v>
       </c>
       <c r="S25">
-        <v>0.02069909946906781</v>
+        <v>0.01280957363555221</v>
       </c>
       <c r="T25">
-        <v>0.01465678570984983</v>
+        <v>0.008832181798561666</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>111.321218</v>
+        <v>96.27664699999998</v>
       </c>
       <c r="H26">
-        <v>333.963654</v>
+        <v>288.829941</v>
       </c>
       <c r="I26">
-        <v>0.2438002270031519</v>
+        <v>0.2308894388042666</v>
       </c>
       <c r="J26">
-        <v>0.2516196610353779</v>
+        <v>0.2343807914451077</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>15558.71567048421</v>
+        <v>16517.0685436357</v>
       </c>
       <c r="R26">
-        <v>140028.4410343579</v>
+        <v>148653.6168927213</v>
       </c>
       <c r="S26">
-        <v>0.06978030868494446</v>
+        <v>0.07522712205455219</v>
       </c>
       <c r="T26">
-        <v>0.07411590774932855</v>
+        <v>0.07780348164645415</v>
       </c>
     </row>
   </sheetData>
